--- a/系统测试/Timeline测试计划.xlsx
+++ b/系统测试/Timeline测试计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="268">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,27 +828,6 @@
   </si>
   <si>
     <t xml:space="preserve">1、点击用户名输入框                    2、点击密码文本框                     3、点击“登录”按钮  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>v1.0“登陆成功”提示框</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    v2.0“用户不存在”提示框</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1492,10 +1471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6-2-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1560,11 +1535,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试登陆界面用户能否正常登陆，若不能正常登录，是否输出错误信息（正常、非空检测、特殊字符家那侧、数据不匹配）</t>
+    <t>测试在注册界面中用户能否正常注册，若不能正常完成注册，是否输出错误信息提示（正常、非空检测、特殊字符家那侧、数据不匹配）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试在注册界面中用户能否正常注册，若不能正常完成注册，是否输出错误信息提示（正常、非空检测、特殊字符家那侧、数据不匹配）</t>
+    <t>测试登陆界面用户能否正常登陆，若不能正常登录，是否输出错误信息（正常、非空检测、特殊字符检测、数据不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试当用户在“登录”状态下点击“更新”按钮时，是否显示最新的前消息列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试当用户在“未登录”状态下点击“更新”按钮时，是否显示最新的前消息列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面正常加载，当前用户已登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面正常加载，当前用户未登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1-A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v1.0“登陆成功”提示框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    v2.0“用户不存在”提示框</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1961,6 +1989,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1972,18 +2003,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2000,14 +2019,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2020,6 +2048,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2330,7 +2361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2354,12 +2385,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1"/>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="18" t="s">
@@ -2405,16 +2436,16 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="23">
         <v>43469</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
@@ -2457,7 +2488,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2469,13 +2500,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
@@ -2635,8 +2666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2653,42 +2684,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
@@ -2696,23 +2727,23 @@
       <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>41</v>
@@ -2724,9 +2755,9 @@
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="25" t="s">
         <v>143</v>
       </c>
@@ -2734,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>42</v>
@@ -2746,9 +2777,9 @@
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="25" t="s">
         <v>144</v>
       </c>
@@ -2756,7 +2787,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>42</v>
@@ -2766,9 +2797,9 @@
       <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="25" t="s">
         <v>145</v>
       </c>
@@ -2776,7 +2807,7 @@
         <v>43</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>43</v>
@@ -2786,9 +2817,9 @@
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="25" t="s">
         <v>146</v>
       </c>
@@ -2796,7 +2827,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>43</v>
@@ -2806,9 +2837,9 @@
       <c r="A8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="25" t="s">
         <v>147</v>
       </c>
@@ -2816,7 +2847,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>44</v>
@@ -2826,9 +2857,9 @@
       <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="25" t="s">
         <v>39</v>
       </c>
@@ -2836,7 +2867,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>45</v>
@@ -2848,9 +2879,9 @@
       <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="25" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2889,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>45</v>
@@ -2868,29 +2899,29 @@
       <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="25" t="s">
         <v>21</v>
       </c>
@@ -2898,7 +2929,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>26</v>
@@ -2908,9 +2939,9 @@
       <c r="A13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="25" t="s">
         <v>22</v>
       </c>
@@ -2918,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>26</v>
@@ -2928,9 +2959,9 @@
       <c r="A14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="25" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +2969,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>26</v>
@@ -2948,9 +2979,9 @@
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="25" t="s">
         <v>24</v>
       </c>
@@ -2958,7 +2989,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>26</v>
@@ -2968,9 +2999,9 @@
       <c r="A16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="25" t="s">
         <v>38</v>
       </c>
@@ -2978,19 +3009,19 @@
         <v>45</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60">
       <c r="A17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="25" t="s">
         <v>50</v>
       </c>
@@ -2998,7 +3029,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>26</v>
@@ -3008,9 +3039,9 @@
       <c r="A18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="25" t="s">
         <v>31</v>
       </c>
@@ -3018,7 +3049,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>45</v>
@@ -3028,9 +3059,9 @@
       <c r="A19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
@@ -3038,7 +3069,7 @@
         <v>45</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>45</v>
@@ -4338,17 +4369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="C3:C19"/>
     <mergeCell ref="D3:D19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4361,8 +4392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4378,62 +4409,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="120">
       <c r="A3" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>57</v>
@@ -4441,19 +4472,19 @@
     </row>
     <row r="4" spans="1:8" ht="132">
       <c r="A4" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+        <v>151</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>58</v>
@@ -4461,39 +4492,39 @@
     </row>
     <row r="5" spans="1:8" ht="120">
       <c r="A5" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+        <v>153</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="108">
       <c r="A6" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+        <v>154</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="34" t="s">
         <v>57</v>
@@ -4501,19 +4532,19 @@
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+        <v>156</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>60</v>
@@ -4521,19 +4552,19 @@
     </row>
     <row r="8" spans="1:8" ht="120">
       <c r="A8" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+        <v>152</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>57</v>
@@ -4541,19 +4572,19 @@
     </row>
     <row r="9" spans="1:8" ht="120">
       <c r="A9" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>57</v>
@@ -4561,19 +4592,19 @@
     </row>
     <row r="10" spans="1:8" ht="120">
       <c r="A10" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>57</v>
@@ -4581,11 +4612,11 @@
     </row>
     <row r="11" spans="1:8" ht="108">
       <c r="A11" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+        <v>159</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="25" t="s">
         <v>61</v>
       </c>
@@ -4593,7 +4624,7 @@
         <v>62</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>62</v>
@@ -4601,51 +4632,51 @@
     </row>
     <row r="12" spans="1:8" ht="120">
       <c r="A12" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+        <v>155</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="108">
       <c r="A13" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120">
       <c r="A14" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="25" t="s">
         <v>65</v>
       </c>
@@ -4653,67 +4684,67 @@
         <v>66</v>
       </c>
       <c r="G14" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>244</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120">
       <c r="A15" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+        <v>162</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120">
       <c r="A16" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+        <v>163</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120">
       <c r="A17" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="25" t="s">
+      <c r="G17" s="35" t="s">
         <v>236</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>237</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>57</v>
@@ -6082,8 +6113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6099,49 +6130,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="36">
       <c r="A3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -6154,7 +6185,7 @@
         <v>82</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>82</v>
@@ -6164,8 +6195,8 @@
       <c r="A4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="25" t="s">
         <v>84</v>
       </c>
@@ -6176,7 +6207,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>87</v>
@@ -6186,8 +6217,8 @@
       <c r="A5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="25" t="s">
         <v>84</v>
       </c>
@@ -6198,7 +6229,7 @@
         <v>89</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>89</v>
@@ -7703,49 +7734,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="24">
       <c r="A3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -7758,7 +7789,7 @@
         <v>97</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>97</v>
@@ -7768,8 +7799,8 @@
       <c r="A4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="25" t="s">
         <v>99</v>
       </c>
@@ -7780,7 +7811,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>100</v>
@@ -9278,8 +9309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9295,40 +9326,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="24">
       <c r="A3" s="25" t="s">
@@ -9337,8 +9368,8 @@
       <c r="B3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>172</v>
+      <c r="C3" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>109</v>
@@ -9358,7 +9389,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="25" t="s">
         <v>113</v>
       </c>
@@ -9377,14 +9408,14 @@
         <v>124</v>
       </c>
       <c r="B5" s="55"/>
-      <c r="C5" s="49" t="s">
-        <v>180</v>
+      <c r="C5" s="46" t="s">
+        <v>179</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>123</v>
@@ -9399,12 +9430,12 @@
         <v>112</v>
       </c>
       <c r="B6" s="55"/>
-      <c r="C6" s="47"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>114</v>
@@ -9418,7 +9449,7 @@
         <v>119</v>
       </c>
       <c r="B7" s="55"/>
-      <c r="C7" s="48"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="25" t="s">
         <v>115</v>
       </c>
@@ -9437,14 +9468,14 @@
         <v>116</v>
       </c>
       <c r="B8" s="55"/>
-      <c r="C8" s="49" t="s">
-        <v>181</v>
+      <c r="C8" s="46" t="s">
+        <v>180</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>129</v>
@@ -9459,12 +9490,12 @@
         <v>118</v>
       </c>
       <c r="B9" s="55"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>130</v>
@@ -9479,12 +9510,12 @@
         <v>121</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>131</v>
@@ -9499,14 +9530,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="49" t="s">
-        <v>182</v>
+      <c r="C11" s="46" t="s">
+        <v>181</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>131</v>
@@ -9518,15 +9549,15 @@
     </row>
     <row r="12" spans="1:8" ht="60">
       <c r="A12" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="25" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>131</v>
@@ -9538,15 +9569,15 @@
     </row>
     <row r="13" spans="1:8" ht="60">
       <c r="A13" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="25" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>131</v>
@@ -9561,21 +9592,21 @@
         <v>126</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="49" t="s">
-        <v>186</v>
+      <c r="C14" s="46" t="s">
+        <v>185</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="72">
@@ -9583,163 +9614,163 @@
         <v>127</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="72">
       <c r="A16" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="156">
       <c r="A17" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="49" t="s">
-        <v>201</v>
+      <c r="C17" s="46" t="s">
+        <v>200</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="156">
       <c r="A18" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="156">
       <c r="A19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48">
       <c r="A20" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="F20" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48">
       <c r="A21" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>209</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48">
       <c r="A22" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="52"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -11024,6 +11055,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B10"/>
@@ -11035,11 +11071,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11052,7 +11083,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11068,40 +11099,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -11110,7 +11141,7 @@
       <c r="B3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>137</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -11123,7 +11154,7 @@
         <v>136</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>139</v>
@@ -11133,8 +11164,8 @@
       <c r="A4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="28" t="s">
         <v>133</v>
       </c>
@@ -11145,7 +11176,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>139</v>
@@ -11153,98 +11184,98 @@
     </row>
     <row r="5" spans="1:8" ht="36">
       <c r="A5" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>214</v>
+      <c r="C5" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36">
       <c r="A6" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="48"/>
+        <v>216</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="32" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="G6" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36">
       <c r="A7" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>221</v>
+      <c r="C7" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>133</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>223</v>
-      </c>
       <c r="G7" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36">
       <c r="A8" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="48"/>
+        <v>219</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="32" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>223</v>
-      </c>
       <c r="G8" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12672,6 +12703,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -12681,11 +12717,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12697,7 +12728,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12713,62 +12744,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="36">
       <c r="A3" s="25" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>142</v>
@@ -12776,47 +12807,81 @@
     </row>
     <row r="4" spans="1:8" ht="84">
       <c r="A4" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>252</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>254</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>257</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36">
+      <c r="A5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36">
+      <c r="A6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
